--- a/StructureDefinition-be-intended-performer.xlsx
+++ b/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T10:01:45+00:00</t>
+    <t>2022-02-08T10:08:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-intended-performer.xlsx
+++ b/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T10:08:35+00:00</t>
+    <t>2022-02-08T13:47:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-intended-performer.xlsx
+++ b/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T13:47:48+00:00</t>
+    <t>2022-02-08T14:21:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-intended-performer.xlsx
+++ b/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T14:21:10+00:00</t>
+    <t>2022-02-10T10:05:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-intended-performer.xlsx
+++ b/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T10:05:03+00:00</t>
+    <t>2022-02-10T10:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-intended-performer.xlsx
+++ b/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T10:07:35+00:00</t>
+    <t>2022-02-10T10:17:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-intended-performer.xlsx
+++ b/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T10:17:28+00:00</t>
+    <t>2022-02-10T10:18:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-intended-performer.xlsx
+++ b/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T10:18:13+00:00</t>
+    <t>2022-02-10T14:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-intended-performer.xlsx
+++ b/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T14:14:34+00:00</t>
+    <t>2022-02-10T14:16:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-intended-performer.xlsx
+++ b/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T14:16:39+00:00</t>
+    <t>2022-02-14T08:27:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-intended-performer.xlsx
+++ b/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T08:27:15+00:00</t>
+    <t>2022-02-14T08:33:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-intended-performer.xlsx
+++ b/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T08:33:39+00:00</t>
+    <t>2022-02-14T09:12:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-intended-performer.xlsx
+++ b/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T09:12:03+00:00</t>
+    <t>2022-02-14T09:13:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-intended-performer.xlsx
+++ b/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T09:13:01+00:00</t>
+    <t>2022-02-14T10:40:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-intended-performer.xlsx
+++ b/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T10:40:00+00:00</t>
+    <t>2022-02-14T10:44:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-intended-performer.xlsx
+++ b/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T10:44:55+00:00</t>
+    <t>2022-02-14T11:05:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-intended-performer.xlsx
+++ b/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T11:05:09+00:00</t>
+    <t>2022-02-14T11:05:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-intended-performer.xlsx
+++ b/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T11:05:42+00:00</t>
+    <t>2022-02-17T07:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-intended-performer.xlsx
+++ b/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T07:59:14+00:00</t>
+    <t>2022-02-17T07:59:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-intended-performer.xlsx
+++ b/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T07:59:49+00:00</t>
+    <t>2022-02-17T10:42:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-intended-performer.xlsx
+++ b/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T10:42:28+00:00</t>
+    <t>2022-02-17T10:42:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-intended-performer.xlsx
+++ b/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T10:42:34+00:00</t>
+    <t>2022-02-22T14:45:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-intended-performer.xlsx
+++ b/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T14:45:52+00:00</t>
+    <t>2022-02-22T16:17:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-intended-performer.xlsx
+++ b/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:17:43+00:00</t>
+    <t>2022-02-22T16:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-intended-performer.xlsx
+++ b/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:23:19+00:00</t>
+    <t>2022-02-23T09:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-intended-performer.xlsx
+++ b/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T09:46:03+00:00</t>
+    <t>2022-02-23T15:29:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-intended-performer.xlsx
+++ b/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T15:29:02+00:00</t>
+    <t>2022-02-23T15:34:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-intended-performer.xlsx
+++ b/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T15:34:51+00:00</t>
+    <t>2022-03-02T14:57:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-intended-performer.xlsx
+++ b/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-02T14:57:26+00:00</t>
+    <t>2022-03-23T15:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-intended-performer.xlsx
+++ b/StructureDefinition-be-intended-performer.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-intended-performer</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-intended-performer</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T15:53:34+00:00</t>
+    <t>2022-05-03T10:04:16+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -355,7 +355,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-organization)
+    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization)
 </t>
   </si>
   <si>

--- a/StructureDefinition-be-intended-performer.xlsx
+++ b/StructureDefinition-be-intended-performer.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$29</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="127">
   <si>
     <t>Property</t>
   </si>
@@ -282,21 +282,11 @@
     <t>Extension.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -321,9 +311,6 @@
     <t>Reference to performer</t>
   </si>
   <si>
-    <t>An Extension</t>
-  </si>
-  <si>
     <t>Extension.extension.id</t>
   </si>
   <si>
@@ -396,6 +383,30 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/performer-role</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization)
+</t>
+  </si>
+  <si>
+    <t>valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>valuePeriod</t>
   </si>
   <si>
     <t>base64Binary
@@ -735,7 +746,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ17"/>
+  <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -746,7 +757,7 @@
   <cols>
     <col min="1" max="1" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -754,7 +765,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.2578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="37.171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1098,11 +1109,11 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>76</v>
@@ -1117,17 +1128,15 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>91</v>
-      </c>
+      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
         <v>74</v>
@@ -1164,19 +1173,19 @@
         <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AB4" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>75</v>
@@ -1191,7 +1200,7 @@
         <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -1199,7 +1208,7 @@
         <v>86</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>74</v>
@@ -1212,7 +1221,7 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
@@ -1221,13 +1230,13 @@
         <v>74</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1278,7 +1287,7 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
@@ -1298,7 +1307,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1398,7 +1407,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1421,13 +1430,13 @@
         <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>29</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1466,19 +1475,19 @@
         <v>74</v>
       </c>
       <c r="AA7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AE7" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>75</v>
@@ -1498,7 +1507,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1521,16 +1530,16 @@
         <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1538,7 +1547,7 @@
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="R8" t="s" s="2">
         <v>74</v>
@@ -1580,7 +1589,7 @@
         <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>80</v>
@@ -1595,12 +1604,12 @@
         <v>74</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1623,13 +1632,13 @@
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1680,7 +1689,7 @@
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
@@ -1692,10 +1701,10 @@
         <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
@@ -1703,20 +1712,20 @@
         <v>86</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>74</v>
@@ -1725,13 +1734,13 @@
         <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1782,7 +1791,7 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -1802,7 +1811,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1902,7 +1911,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1925,13 +1934,13 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>29</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1970,19 +1979,19 @@
         <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -2002,7 +2011,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2025,16 +2034,16 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2042,7 +2051,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>74</v>
@@ -2084,7 +2093,7 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>80</v>
@@ -2099,12 +2108,12 @@
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2112,7 +2121,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>80</v>
@@ -2127,13 +2136,13 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2172,17 +2181,17 @@
         <v>74</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -2194,25 +2203,25 @@
         <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>80</v>
@@ -2227,13 +2236,13 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2260,11 +2269,11 @@
         <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>74</v>
@@ -2282,7 +2291,7 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -2294,29 +2303,31 @@
         <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" hidden="true">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="C16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
@@ -2325,24 +2336,22 @@
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="R16" t="s" s="2">
         <v>74</v>
@@ -2384,27 +2393,27 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2415,7 +2424,7 @@
         <v>75</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>74</v>
@@ -2427,13 +2436,13 @@
         <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2484,7 +2493,7 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -2496,14 +2505,1222 @@
         <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" hidden="true">
+      <c r="A19" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="R19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA20" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AB20" s="2"/>
+      <c r="AC20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>108</v>
       </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" hidden="true">
+      <c r="A23" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" hidden="true">
+      <c r="A24" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
+      <c r="A25" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" hidden="true">
+      <c r="A26" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AB26" s="2"/>
+      <c r="AC26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
+      <c r="A27" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ17">
+  <autoFilter ref="A1:AJ29">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2513,7 +3730,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI16">
+  <conditionalFormatting sqref="A2:AI28">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-intended-performer.xlsx
+++ b/StructureDefinition-be-intended-performer.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="129">
   <si>
     <t>Property</t>
   </si>
@@ -388,6 +388,9 @@
     <t>organization</t>
   </si>
   <si>
+    <t>Organization of the performer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization)
 </t>
   </si>
@@ -400,6 +403,9 @@
   </si>
   <si>
     <t>period</t>
+  </si>
+  <si>
+    <t>Start and end of assignment of performer</t>
   </si>
   <si>
     <t xml:space="preserve">Period
@@ -765,7 +771,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="37.171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="39.3515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2339,7 +2345,7 @@
         <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>88</v>
@@ -2738,7 +2744,7 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>107</v>
@@ -2816,7 +2822,7 @@
         <v>105</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>74</v>
@@ -2838,7 +2844,7 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>107</v>
@@ -2918,7 +2924,7 @@
         <v>86</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>74</v>
@@ -2943,7 +2949,7 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>88</v>
@@ -3257,7 +3263,7 @@
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="R25" t="s" s="2">
         <v>74</v>
@@ -3342,7 +3348,7 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>107</v>
@@ -3420,7 +3426,7 @@
         <v>105</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>74</v>
@@ -3442,7 +3448,7 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>107</v>
@@ -3644,7 +3650,7 @@
         <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>107</v>
